--- a/classes/ChoiceFeatures.xlsx
+++ b/classes/ChoiceFeatures.xlsx
@@ -25,7 +25,7 @@
     <t>4=Acrobatics/Athletics/Deception/Insight/Intimidation/Investigation/Perception/Performance/Persuasion/Sleight of Hand/Stealth</t>
   </si>
   <si>
-    <t>Mace/*Warhammer=Light Crossbow!20 bolts/?S</t>
+    <t>Mace/*Warhammer=Light Crossbow!20 bolts/?SW</t>
   </si>
   <si>
     <t>Rapier/Shortsword=Shortbow!Quiver of 20 arrows/Shortsword=2@Dagger</t>
@@ -43,10 +43,10 @@
     <t>Burglar Pack/Dungeoneer's Pack=Explorer's Pack</t>
   </si>
   <si>
-    <t>Divine Domain:=classes/cleric/DivineDomains.xlsx</t>
-  </si>
-  <si>
-    <t>Roguish Archetype:=classes/rogue/RoguishArchetypes.xlsx</t>
+    <t>1=Divine Domain:=classes/cleric/DivineDomains.xlsx</t>
+  </si>
+  <si>
+    <t>3=Roguish Archetype:=classes/rogue/RoguishArchetypes.xlsx</t>
   </si>
 </sst>
 </file>

--- a/classes/ChoiceFeatures.xlsx
+++ b/classes/ChoiceFeatures.xlsx
@@ -25,16 +25,16 @@
     <t>4=Acrobatics/Athletics/Deception/Insight/Intimidation/Investigation/Perception/Performance/Persuasion/Sleight of Hand/Stealth</t>
   </si>
   <si>
-    <t>Mace/*Warhammer=Light Crossbow!20 bolts/?SW</t>
-  </si>
-  <si>
-    <t>Rapier/Shortsword=Shortbow!Quiver of 20 arrows/Shortsword=2@Dagger</t>
-  </si>
-  <si>
-    <t>Scale Mail/Leather Armor/*Chain Mail=Shield</t>
-  </si>
-  <si>
-    <t>Leather Armor</t>
+    <t>Mace/*War-hammer=Crossbow, Light/?SW</t>
+  </si>
+  <si>
+    <t>Rapier/Short-sword=Shortbow/Short-sword=2@Dagger</t>
+  </si>
+  <si>
+    <t>Scale Mail/Leather/*Chain Mail=Shield</t>
+  </si>
+  <si>
+    <t>Leather</t>
   </si>
   <si>
     <t>Priest's Pack/Explorer's Pack=Holy Symbol</t>

--- a/classes/ChoiceFeatures.xlsx
+++ b/classes/ChoiceFeatures.xlsx
@@ -25,7 +25,7 @@
     <t>4=Acrobatics/Athletics/Deception/Insight/Intimidation/Investigation/Perception/Performance/Persuasion/Sleight of Hand/Stealth</t>
   </si>
   <si>
-    <t>Mace/*War-hammer=Crossbow, Light/?SW</t>
+    <t>Mace/*War-hammer=Crossbow, Light/?Simple Weapons</t>
   </si>
   <si>
     <t>Rapier/Short-sword=Shortbow/Short-sword=2@Dagger</t>
